--- a/medicine/Enfance/Association_de_réflexion_pour_la_plongée_des_enfants/Association_de_réflexion_pour_la_plongée_des_enfants.xlsx
+++ b/medicine/Enfance/Association_de_réflexion_pour_la_plongée_des_enfants/Association_de_réflexion_pour_la_plongée_des_enfants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_de_r%C3%A9flexion_pour_la_plong%C3%A9e_des_enfants</t>
+          <t>Association_de_réflexion_pour_la_plongée_des_enfants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association de réflexion pour la plongée des enfants (ARPE) est une association qui s'est attachée à mettre en commun l’expérience de certains moniteurs, dirigeants, enseignants et médecins passionnés par la pratique de la plongée sous-marine avec les enfants.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_de_r%C3%A9flexion_pour_la_plong%C3%A9e_des_enfants</t>
+          <t>Association_de_réflexion_pour_la_plongée_des_enfants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Association française régie par la loi du 1er juillet 1901, l'ARPE a été fondée en 1986.
 Elle est agréée par le Ministère de la Jeunesse et des Sports ainsi que par le Ministère du travail.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_de_r%C3%A9flexion_pour_la_plong%C3%A9e_des_enfants</t>
+          <t>Association_de_réflexion_pour_la_plongée_des_enfants</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Son objet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association a pour objet la collecte, l'échange d'informations et de connaissances, scientifiques, médicales, techniques, pédagogiques, juridiques, administratives et autres, concernant la plongée pour enfants.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Association_de_r%C3%A9flexion_pour_la_plong%C3%A9e_des_enfants</t>
+          <t>Association_de_réflexion_pour_la_plongée_des_enfants</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Ses adhérents</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'ARPE est constituée d'adhérents : 
 individuels (moniteurs de plongée, éducateurs sportifs, professeurs, parents) ;
